--- a/Practice Report/Practice1/Practice_1_Q&A.xlsx
+++ b/Practice Report/Practice1/Practice_1_Q&A.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thien\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Company\Github\Learning\Learning\Practice Report\Practice1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13DCB535-1FD0-4A54-A90B-171132F138AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22931478-17AE-43B8-8CF0-1D76567A2A73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -197,7 +197,8 @@
     <t>Sau khi nhận request vào htmlAction, xử lý, trả ngược và xuống SC, thao tác bcimple trong sc, trả ngược lên dần ra fe</t>
   </si>
   <si>
-    <t>Trong hàm EventResponse manageErrMsg</t>
+    <t>Trong hàm EventResponse manageErrMsg trong file SC bao gồm 3 method bên trong
+begin(), commit(), rollback()</t>
   </si>
 </sst>
 </file>
@@ -1098,7 +1099,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>13</v>
       </c>
